--- a/scripts/templates/cdisc_collection_dataset_specializations_latest_template.xlsx
+++ b/scripts/templates/cdisc_collection_dataset_specializations_latest_template.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F6A02F-074E-4CB5-95EC-DA80A7BEDBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669600B-0882-41DC-A430-BA3A2DE7C161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection Specializations" sheetId="2" r:id="rId1"/>
     <sheet name="Domains" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection Specializations'!$A$1:$AF$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection Specializations'!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>package_date</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>derived_variable</t>
+  </si>
+  <si>
+    <t>derivation_description</t>
   </si>
 </sst>
 </file>
@@ -345,11 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
@@ -361,30 +372,32 @@
     <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="27.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="43.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="42.5703125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="42.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="39.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="39.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="31.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="39.42578125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="39.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -416,74 +429,83 @@
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AI1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -495,12 +517,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>

--- a/scripts/templates/cdisc_collection_dataset_specializations_latest_template.xlsx
+++ b/scripts/templates/cdisc_collection_dataset_specializations_latest_template.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669600B-0882-41DC-A430-BA3A2DE7C161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BE6F3-1606-41F8-8FFB-66817F58CCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection Specializations" sheetId="2" r:id="rId1"/>
-    <sheet name="Domains" sheetId="4" r:id="rId2"/>
+    <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
+    <sheet name="Collection Specializations" sheetId="2" r:id="rId2"/>
+    <sheet name="Domains" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection Specializations'!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Collection Specializations'!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>package_date</t>
   </si>
@@ -129,13 +130,166 @@
   </si>
   <si>
     <t>derivation_description</t>
+  </si>
+  <si>
+    <t>Variable significant_digits</t>
+  </si>
+  <si>
+    <t>Variable length</t>
+  </si>
+  <si>
+    <t>Variable data type</t>
+  </si>
+  <si>
+    <t>CDISC submission value for the codelist</t>
+  </si>
+  <si>
+    <t>CodeList</t>
+  </si>
+  <si>
+    <t>C-code for a codelist in NCIt</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Data Element Concept idenfifier foreign key</t>
+  </si>
+  <si>
+    <t>Biomedical Concept identifier foreign key</t>
+  </si>
+  <si>
+    <t>Biomedical Concept package release date indicating when the BC package was published to production</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>This spreadsheet contains the latest versions of CDISC Collection Dataset Specializations in the CDISC Library as of {date}.
+There are currently {n} unique CDISC Collection Dataset Specializations in the CDISC Library.
+The image on the right shows the relation between Biomedical Concepts, Collection Dataset Specializations and SDTM Dataset Specializations.
+Only a few attributes are shown in the image.</t>
+  </si>
+  <si>
+    <t>prepopulated_value</t>
+  </si>
+  <si>
+    <t>DataCollectionGroup</t>
+  </si>
+  <si>
+    <t>variabel_name</t>
+  </si>
+  <si>
+    <t>DataCollectionItem</t>
+  </si>
+  <si>
+    <t>ListValue</t>
+  </si>
+  <si>
+    <t>SDTMTarget</t>
+  </si>
+  <si>
+    <t>Collection Item</t>
+  </si>
+  <si>
+    <t>Collection Group</t>
+  </si>
+  <si>
+    <t>PrepoulatedValue</t>
+  </si>
+  <si>
+    <t>The earliest standard version applicable to the dataset specialization</t>
+  </si>
+  <si>
+    <t>The last standard version that is applicable to the dataset specialization</t>
+  </si>
+  <si>
+    <t>Domain for the collection specialization group</t>
+  </si>
+  <si>
+    <t>SDTM Dataset Specialization foreign key</t>
+  </si>
+  <si>
+    <t>Standard for the data collection specialization group, e.g CDASH, FIHR</t>
+  </si>
+  <si>
+    <t>Implementation option for the data collection specialization group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario for the data collection specialization group, e.g. Local vs Central Lab. </t>
+  </si>
+  <si>
+    <t>Identifier for Collection Metadata group</t>
+  </si>
+  <si>
+    <t>Collection group short name which provides a user friendly and intuitive name for the collection_group_id</t>
+  </si>
+  <si>
+    <t>Item name as it appears on the collection instrument</t>
+  </si>
+  <si>
+    <t>Variable name of the collection item for which data are being collected</t>
+  </si>
+  <si>
+    <t>User-friendly question associated with an item</t>
+  </si>
+  <si>
+    <t>A short phrase to prompt for data</t>
+  </si>
+  <si>
+    <t>Sort order of the item as it appears on the collection instrument within a data collection specialization group</t>
+  </si>
+  <si>
+    <t>Indicator that variable must be present within the collection group</t>
+  </si>
+  <si>
+    <t>Indicator that the item is hidden from the user</t>
+  </si>
+  <si>
+    <t>Indicator that variable is derived</t>
+  </si>
+  <si>
+    <t>Description of the derivation</t>
+  </si>
+  <si>
+    <t>A set of values for a data collection item</t>
+  </si>
+  <si>
+    <t>CDISC submission value for the data collection item</t>
+  </si>
+  <si>
+    <t>Type of selection used for set-up of the data collection instrument</t>
+  </si>
+  <si>
+    <t>C-code for pre-populated value for the data collection instrument</t>
+  </si>
+  <si>
+    <t>Submission value for pre-populated term in NCIt</t>
+  </si>
+  <si>
+    <t>Annotation of the SDTM target in the data collection instrument</t>
+  </si>
+  <si>
+    <t>Rule for mapping from data collection item to SDTM target variable</t>
+  </si>
+  <si>
+    <t>SDTM target variable(s) for data collection item variable</t>
+  </si>
+  <si>
+    <t>Collection Dataset Specialization categories for the faciliation of API search and extract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -153,8 +307,14 @@
       <color rgb="FF112277"/>
       <name val="Albany AMT"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Albany AMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,11 +369,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -220,6 +475,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,6 +581,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>571499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11103</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6816F082-7E95-41AD-D179-AE034D8311DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610724" y="571499"/>
+          <a:ext cx="10402879" cy="4340679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,18 +753,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0398605A-E9D1-4A19-B8AC-9873CF0DB5C1}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="D3:D14"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D15:D27"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -397,7 +1284,7 @@
     <col min="35" max="35" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,18 +1398,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D4D58F-1B91-4026-A7FA-AD7CF788CB4A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
